--- a/Guru99Project/src/testData/TestData.xlsx
+++ b/Guru99Project/src/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Verification Title</t>
+  </si>
+  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>nArysEm</t>
+  </si>
+  <si>
+    <t>Guru99 Bank Manager HomePage</t>
   </si>
   <si>
     <t>chrome</t>
@@ -166,7 +172,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -191,15 +197,19 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -281,25 +291,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="4" hidden="false" style="0" width="16.8724489795918" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="10.1224489795918" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="9.71938775510204" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="16.6020408163265" collapsed="true"/>
-    <col min="10" max="10" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
-    <col min="11" max="11" hidden="false" style="0" width="24.1632653061224" collapsed="true"/>
-    <col min="12" max="12" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="13" max="13" hidden="false" style="0" width="19.1683673469388" collapsed="true"/>
-    <col min="14" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="3" hidden="false" style="0" width="16.3316326530612" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="29.5612244897959" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="16.3316326530612" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="9.44897959183673" collapsed="true"/>
+    <col min="10" max="10" hidden="false" style="0" width="16.0663265306122" collapsed="true"/>
+    <col min="11" max="11" hidden="false" style="0" width="9.58673469387755" collapsed="true"/>
+    <col min="12" max="12" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
+    <col min="13" max="13" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
+    <col min="14" max="14" hidden="false" style="0" width="18.6275510204082" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="1">
@@ -315,10 +326,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -327,53 +340,58 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" t="s">
-        <v>9</v>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F3" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G3" type="list">
       <formula1>"Product 1,Product 2,Product 3,Product 4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -400,9 +418,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-  </cols>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -426,9 +441,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-  </cols>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>

--- a/Guru99Project/src/testData/TestData.xlsx
+++ b/Guru99Project/src/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Verification Title</t>
+    <t>Expected title/message</t>
   </si>
   <si>
     <t>Browser</t>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Framework_002</t>
+  </si>
+  <si>
+    <t>fdsfsdfs</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>Framework_003</t>
+  </si>
+  <si>
+    <t>dfsdfs</t>
+  </si>
+  <si>
+    <t>Framework_004</t>
+  </si>
+  <si>
+    <t>fsdfsdf</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="20">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -209,8 +233,8 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="20">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -291,26 +315,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
+      <selection activeCell="D15" activeCellId="0" pane="topLeft" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" hidden="false" style="0" width="16.3316326530612" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="29.5612244897959" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="16.3316326530612" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="9.85204081632653" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="9.44897959183673" collapsed="true"/>
-    <col min="10" max="10" hidden="false" style="0" width="16.0663265306122" collapsed="true"/>
-    <col min="11" max="11" hidden="false" style="0" width="9.58673469387755" collapsed="true"/>
-    <col min="12" max="12" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
-    <col min="13" max="13" hidden="false" style="0" width="10.2602040816327" collapsed="true"/>
-    <col min="14" max="14" hidden="false" style="0" width="18.6275510204082" collapsed="true"/>
+    <col min="1" max="3" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="27.9438775510204" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
+    <col min="6" max="6" hidden="false" style="0" width="10.6632653061225" collapsed="true"/>
+    <col min="7" max="7" hidden="false" style="0" width="13.7704081632653" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="8.77551020408163" collapsed="true"/>
+    <col min="10" max="10" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
+    <col min="11" max="11" hidden="false" style="0" width="9.04591836734694" collapsed="true"/>
+    <col min="12" max="12" hidden="false" style="0" width="22.1377551020408" collapsed="true"/>
+    <col min="13" max="13" hidden="false" style="0" width="9.71938775510204" collapsed="true"/>
+    <col min="14" max="14" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
+    <col min="15" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="1">
@@ -374,12 +399,24 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -388,6 +425,46 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -418,6 +495,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
+  </cols>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
@@ -441,6 +521,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1025" hidden="false" style="0" width="8.10204081632653" collapsed="true"/>
+  </cols>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>

--- a/Guru99Project/src/testData/TestData.xlsx
+++ b/Guru99Project/src/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/Guru99Project/src/testData/TestData.xlsx
+++ b/Guru99Project/src/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>Test Case Name</t>
   </si>
